--- a/PJ/MyFinance/Docment/QAシート_Ver1.3.xlsx
+++ b/PJ/MyFinance/Docment/QAシート_Ver1.3.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173D673A-B5A8-40DB-B5B7-DEA191E75224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13253760-E30C-4FA3-95C2-9A1159350A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="5025" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20280" yWindow="5025" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
     <sheet name="QAシート" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">QAシート!$B$2:$M$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">QAシート!$B$2:$M$131</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="299">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="2">
@@ -4533,52 +4533,6 @@
     </rPh>
     <rPh sb="110" eb="112">
       <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一覧画面上部にある” &lt; 2020/08 &gt;”の表示欄は、日・週・月・年の４パターンでどう変化するのか、詳細設計書に明記をお願いしたいです。</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウブ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>シュウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="54" eb="57">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>メイキ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ネガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4911,25 +4865,774 @@
     <t>高</t>
   </si>
   <si>
+    <t>ご認識の通りです。　訂正いたしました。</t>
+    <rPh sb="10" eb="12">
+      <t>テイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支出情報を入力した時も残高更新を行います。
+訂正いたしました。</t>
+    <rPh sb="0" eb="4">
+      <t>シシュテゥ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキモ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ザンダカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシn</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>訂正いたしました。</t>
+    <rPh sb="0" eb="2">
+      <t>テイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読み込みのみを行うように訂正いたしました。</t>
+    <rPh sb="0" eb="1">
+      <t>ヨミコム</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「カテゴリーの合計金額」と訂正いたしました。</t>
+    <rPh sb="7" eb="11">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>週：日〜土（その日を含んだ週）
+　例）9/9の場合は9/6〜9/12
+月：設定した月初めから１ヶ月
+　例）月初め：25日で設定　8/25〜9/24
+年：今年
+　例）2020年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残高合計・支出合計は変化あり。
+過去月を選択した場合は、月毎の残高合計・支出合計が同一となることがほぼ有り得ないため。</t>
+    <rPh sb="0" eb="4">
+      <t>ザn</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>シシュテゥ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カコビヲ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t xml:space="preserve">ゴト </t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>ザンダカゴ</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>シシュテゥ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ドウイテゥ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t xml:space="preserve">アリエナイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書のイベント処理タブに目標金額は支出目標金額である旨を追記いたしました。</t>
+    <rPh sb="0" eb="5">
+      <t>ショウサイセク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="20" eb="26">
+      <t>シシュテゥ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある日に２つ以上データがある場合で、初期画面からカレンダーの日付をタップした場合は一覧画面に遷移します。その日のデータ全てを、一覧画面にて表示します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データが入力されている日とデータの無い日の区別は無いです。
+イメージ図のカレンダーについては、家計簿案0907版_Ver2の画面フロー図タブ内の画面構成に表示されているように、
+登録画面と検索画面にある日付欄のカレンダーアイコンをクリックした際に表示されるものです。</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">ヒ </t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">ナイ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>クベテゥ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t xml:space="preserve">ナイ </t>
+    </rPh>
+    <rPh sb="47" eb="51">
+      <t>カケイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="89" eb="93">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="94" eb="98">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="101" eb="104">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ヒョウジサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除いたしました。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この機能は削除といたしました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除いたしました。</t>
+    <rPh sb="0" eb="1">
+      <t>サクジヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録方法のシートを追加し、イメージ図を追記いたしました。</t>
+    <rPh sb="0" eb="6">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツイキイタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリも追記いたしました。</t>
+    <rPh sb="5" eb="7">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご認識の通りです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正いたしました。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200909（検索画面）.xlsでイメージの統一をいたしました。</t>
+    <rPh sb="0" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウイテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿案_0907版_ver2.xlsxでは修正されております。</t>
+    <rPh sb="22" eb="24">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細設計書_20200909（検索画面）.xlsでは修正されております。</t>
+    <rPh sb="22" eb="24">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認識の通りです。
+ただし、家計簿案_0907版_ver2.xlsxのマスターデータに記載されている通り、ユーザが複数項目を選択することも可能です。</t>
+    <rPh sb="0" eb="2">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>_x0000__x0000__x0002_</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>_x0004__x0003__x0001_</t>
+    </rPh>
+    <rPh sb="56" eb="60">
+      <t xml:space="preserve">_x0007_*_x0002_
+</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>６日〜11日が画面上に表示されます。</t>
+    <rPh sb="7" eb="9">
+      <t>ガメンクジヨ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本日の日付が表示されます。</t>
+    <rPh sb="0" eb="2">
+      <t>ホn</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追記いたしました。</t>
+    <rPh sb="0" eb="2">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追記いたしました。</t>
+    <rPh sb="0" eb="1">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントは30文字まで入力することができます。
+30文字以上を入力した場合は入力不可で31文字以降は表示されません。</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイハ</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最初から表示されている認識であっています。</t>
+    <rPh sb="0" eb="2">
+      <t>サイセィオ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正いたしました。</t>
+    <rPh sb="0" eb="1">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件チームでは詳細な処理の動きがわかるメンバーがいないため、開発チーム側で検討をお願いしたいです。</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウケn</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウゴキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カイハツテ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>田和</t>
   </si>
   <si>
     <t>設計（機能概要）</t>
+  </si>
+  <si>
+    <t>設計（画面フロー）</t>
+  </si>
+  <si>
+    <t>あまり今回のアプリを知らない状態でフロー図を見ましたが、少し理解するのが難しく感じました。フローの線をもし交わるとかが必要なのであれば、飛び越え線などを用いた方がいいかと思います。</t>
   </si>
   <si>
     <t>家計簿案_0907版_ver2.xlsx　シート：機能概要 (2)　E13のトリガーが反映はおかしいと思います。
 質問ですが、E13とE14はセルを結合してはまずいのでしょうか。</t>
-  </si>
-  <si>
-    <t>設計（画面フロー）</t>
-  </si>
-  <si>
-    <t>あまり今回のアプリを知らない状態でフロー図を見ましたが、少し理解するのが難しく感じました。フローの線をもし交わるとかが必要なのであれば、飛び越え線などを用いた方がいいかと思います。</t>
-  </si>
-  <si>
-    <t>高</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目は選択可能です。
+〈をクリックしたら日付が202008の画面に遷移します。　
+〉をクリックしたら日付が2020010の画面に遷移します。
+例：202009の場合</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セn</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>セn</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリで入出金を判別しているため、カテゴリマスタは必要です。</t>
+    <rPh sb="5" eb="8">
+      <t>ニュウシュッキn</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンベテゥ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルとして作成する必要がない（前月分の月初めデータを持っておく必要がない。月初め日の設定変更があった際に対応するため。）と判断しましたので、月初のデータファイルを用いて対応したいと考えています。</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ゼンゲテゥ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>モッテ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ツキハジメ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t xml:space="preserve">ヒ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ハンダンシマ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ツキハジメ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>モティ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>カンガエテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーボタンを削除いたしました。</t>
+    <rPh sb="9" eb="11">
+      <t>サクジヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追記いたしました。</t>
+    <rPh sb="0" eb="2">
+      <t>ツイキイタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色分けを決めました。</t>
+    <rPh sb="0" eb="2">
+      <t>イロワケ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〈を押下して月を選択すると日付欄に反映されます。
+『〈を押下すると』を追記いたしました。　</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ツキ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正いたしました。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイイタシマシタ。</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期画面からも遷移するので、追記いたしました。</t>
+    <rPh sb="0" eb="4">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント処理シートのB84に説明を追記いたしました。</t>
+    <rPh sb="14" eb="16">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他の場合はありません。</t>
     <rPh sb="0" eb="1">
-      <t>コウ</t>
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記載間違いでしたので削除いたしました。</t>
+    <rPh sb="0" eb="4">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〈を押下して日付を選択します。
+「〈を押下」を追記いたしました。</t>
+    <rPh sb="2" eb="4">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="24">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧画面上部にある” &lt; 2020/08 &gt;”の表示欄は、日・週・月・年の４パターンでどう変化するのか、詳細設計書に明記をお願いしたいです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日・週・月は変化致しません。
+年で過去日を選択した場合、2019/08と表示します。
+月は変わらずに年だけが変更されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タブ切り替えボタンは削除いたしました。
+レイアウト変更はございません。</t>
+    <rPh sb="10" eb="12">
+      <t>サクジヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タブ切り替えボタンの記述については削除いたしました。
+ご認識の通り「画面上の全ての支出の合計を表示する」です。</t>
+    <rPh sb="0" eb="1">
+      <t>タブキリカエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キジュテゥ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクジヨ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>トオリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単純に一覧画面上の検索結果で、収入と支出の差を表示するという認識です。
+その月の収入があり、日毎の支出を引いたものの合計金額なので残高合計という文言にいたしました。</t>
+    <rPh sb="40" eb="42">
+      <t>シュウニュウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">ヒ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シシュテゥ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヒイタ</t>
+    </rPh>
+    <rPh sb="58" eb="62">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ザンダカ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>モンゴn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当データとは一覧画面に表示されている各項目のことです。画面イメージシートに説明を追記いたしました。</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>イティ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>カクコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細説明を詳細設計書に記載いたしました。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>ショウサイス</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご指摘ありがとうございます。　ご指摘の内容は理解いたしましたが、特に機能上問題があるわけではございませんので今回はこのままで行きたいと思います。もし理解に苦しむようであればご自身の分かりやすいようにし修正していただければと考えております。よろしくお願いいたします。
+2020/9/24 西原追記
+フローの線が交わっている個所については色の変更を行うことで見やすく表現しました。</t>
+    <rPh sb="32" eb="33">
+      <t>トクニ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>イキタ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>オモイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>クルシム</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ワカリヤスイヨウニ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>カンガエ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ニシハラ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>マジ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>ヒョウゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4938,7 +5641,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4951,6 +5654,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -4975,7 +5686,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -5133,13 +5844,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5194,14 +5918,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5564,15 +6315,15 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="5" t="s">
         <v>4</v>
       </c>
@@ -5581,15 +6332,15 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="6" t="s">
         <v>7</v>
       </c>
@@ -5598,15 +6349,15 @@
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="6" t="s">
         <v>7</v>
       </c>
@@ -5615,15 +6366,15 @@
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
       <c r="J5" s="6" t="s">
         <v>12</v>
       </c>
@@ -5632,238 +6383,235 @@
       <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B7" s="8"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B8" s="8"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B9" s="8"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B10" s="8"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B11" s="8"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B12" s="8"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B13" s="8"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B14" s="8"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B15" s="8"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B16" s="8"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="8"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="8"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="8"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="8"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="8"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="8"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="8"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="8"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="9"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
       <c r="J25" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C15:I15"/>
     <mergeCell ref="C16:I16"/>
@@ -5875,11 +6623,14 @@
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C14:I14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5892,16 +6643,16 @@
   <dimension ref="B2:M131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
+      <pane ySplit="2" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="0.75" customWidth="1"/>
+    <col min="1" max="1" width="0.625" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.375" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58.375" customWidth="1"/>
     <col min="7" max="7" width="7.875" style="13" customWidth="1"/>
@@ -7803,11 +8554,17 @@
       <c r="G56" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="1"/>
+      <c r="H56" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I56" s="12"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
+      <c r="K56" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>261</v>
+      </c>
       <c r="M56" s="1"/>
     </row>
     <row r="57" spans="2:13" ht="75" x14ac:dyDescent="0.4">
@@ -7829,11 +8586,17 @@
       <c r="G57" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H57" s="1"/>
+      <c r="H57" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I57" s="12"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
+      <c r="K57" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="M57" s="1"/>
     </row>
     <row r="58" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -7855,11 +8618,17 @@
       <c r="G58" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H58" s="1"/>
+      <c r="H58" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I58" s="12"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
+      <c r="K58" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="M58" s="1"/>
     </row>
     <row r="59" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -7881,11 +8650,17 @@
       <c r="G59" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H59" s="1"/>
+      <c r="H59" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I59" s="12"/>
       <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
+      <c r="K59" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="M59" s="1"/>
     </row>
     <row r="60" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
@@ -7907,11 +8682,17 @@
       <c r="G60" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H60" s="1"/>
+      <c r="H60" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I60" s="12"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
+      <c r="K60" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="M60" s="1"/>
     </row>
     <row r="61" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -7933,11 +8714,17 @@
       <c r="G61" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H61" s="1"/>
+      <c r="H61" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I61" s="12"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
+      <c r="K61" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>245</v>
+      </c>
       <c r="M61" s="1"/>
     </row>
     <row r="62" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -7959,11 +8746,17 @@
       <c r="G62" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H62" s="1"/>
+      <c r="H62" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I62" s="12"/>
       <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
+      <c r="K62" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="M62" s="1"/>
     </row>
     <row r="63" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -7985,11 +8778,17 @@
       <c r="G63" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H63" s="1"/>
+      <c r="H63" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I63" s="12"/>
       <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
+      <c r="K63" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="M63" s="1"/>
     </row>
     <row r="64" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -8011,11 +8810,17 @@
       <c r="G64" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H64" s="1"/>
+      <c r="H64" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I64" s="12"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
+      <c r="K64" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="M64" s="1"/>
     </row>
     <row r="65" spans="2:13" ht="75" x14ac:dyDescent="0.4">
@@ -8037,11 +8842,17 @@
       <c r="G65" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H65" s="1"/>
+      <c r="H65" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I65" s="12"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
+      <c r="K65" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="M65" s="1"/>
     </row>
     <row r="66" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
@@ -8063,11 +8874,17 @@
       <c r="G66" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H66" s="1"/>
+      <c r="H66" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I66" s="12"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
+      <c r="K66" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>297</v>
+      </c>
       <c r="M66" s="1"/>
     </row>
     <row r="67" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -8089,11 +8906,17 @@
       <c r="G67" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H67" s="1"/>
+      <c r="H67" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I67" s="12"/>
       <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
+      <c r="K67" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>257</v>
+      </c>
       <c r="M67" s="1"/>
     </row>
     <row r="68" spans="2:13" ht="75" x14ac:dyDescent="0.4">
@@ -8115,11 +8938,17 @@
       <c r="G68" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H68" s="1"/>
+      <c r="H68" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I68" s="12"/>
       <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
+      <c r="K68" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="M68" s="1"/>
     </row>
     <row r="69" spans="2:13" ht="75" x14ac:dyDescent="0.4">
@@ -8141,11 +8970,17 @@
       <c r="G69" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H69" s="1"/>
+      <c r="H69" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I69" s="12"/>
       <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
+      <c r="K69" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="M69" s="1"/>
     </row>
     <row r="70" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
@@ -8159,7 +8994,7 @@
         <v>28</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="F70" s="11" t="s">
         <v>195</v>
@@ -8167,11 +9002,17 @@
       <c r="G70" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H70" s="1"/>
+      <c r="H70" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I70" s="12"/>
       <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
+      <c r="K70" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="M70" s="1"/>
     </row>
     <row r="71" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
@@ -8193,11 +9034,17 @@
       <c r="G71" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H71" s="1"/>
+      <c r="H71" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I71" s="12"/>
       <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
+      <c r="K71" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>278</v>
+      </c>
       <c r="M71" s="1"/>
     </row>
     <row r="72" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -8219,11 +9066,17 @@
       <c r="G72" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H72" s="1"/>
+      <c r="H72" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I72" s="12"/>
       <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
+      <c r="K72" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>279</v>
+      </c>
       <c r="M72" s="1"/>
     </row>
     <row r="73" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
@@ -8245,14 +9098,20 @@
       <c r="G73" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H73" s="1"/>
+      <c r="H73" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I73" s="12"/>
       <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
+      <c r="K73" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:13" ht="75" x14ac:dyDescent="0.4">
       <c r="B74" s="1">
         <v>72</v>
       </c>
@@ -8271,11 +9130,17 @@
       <c r="G74" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H74" s="1"/>
+      <c r="H74" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I74" s="12"/>
       <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
+      <c r="K74" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>280</v>
+      </c>
       <c r="M74" s="1"/>
     </row>
     <row r="75" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -8297,11 +9162,17 @@
       <c r="G75" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H75" s="1"/>
+      <c r="H75" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I75" s="12"/>
       <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
+      <c r="K75" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="M75" s="1"/>
     </row>
     <row r="76" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
@@ -8323,11 +9194,17 @@
       <c r="G76" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H76" s="1"/>
+      <c r="H76" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I76" s="12"/>
       <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
+      <c r="K76" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="M76" s="1"/>
     </row>
     <row r="77" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
@@ -8349,11 +9226,17 @@
       <c r="G77" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H77" s="1"/>
+      <c r="H77" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I77" s="12"/>
       <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
+      <c r="K77" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="M77" s="1"/>
     </row>
     <row r="78" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -8375,11 +9258,17 @@
       <c r="G78" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H78" s="1"/>
+      <c r="H78" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I78" s="12"/>
       <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
+      <c r="K78" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="M78" s="1"/>
     </row>
     <row r="79" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -8401,11 +9290,17 @@
       <c r="G79" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H79" s="1"/>
+      <c r="H79" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I79" s="12"/>
       <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
+      <c r="K79" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="M79" s="1"/>
     </row>
     <row r="80" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -8427,11 +9322,17 @@
       <c r="G80" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H80" s="1"/>
+      <c r="H80" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I80" s="12"/>
       <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
+      <c r="K80" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="M80" s="1"/>
     </row>
     <row r="81" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
@@ -8453,12 +9354,20 @@
       <c r="G81" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H81" s="1"/>
+      <c r="H81" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I81" s="12"/>
       <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
+      <c r="K81" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="M81" s="11" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="82" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B82" s="1">
@@ -8479,11 +9388,17 @@
       <c r="G82" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H82" s="1"/>
+      <c r="H82" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I82" s="12"/>
       <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
+      <c r="K82" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>251</v>
+      </c>
       <c r="M82" s="1"/>
     </row>
     <row r="83" spans="2:13" ht="75" x14ac:dyDescent="0.4">
@@ -8505,14 +9420,20 @@
       <c r="G83" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H83" s="1"/>
+      <c r="H83" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I83" s="12"/>
       <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
+      <c r="K83" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>252</v>
+      </c>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="2:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:13" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B84" s="1">
         <v>82</v>
       </c>
@@ -8531,11 +9452,17 @@
       <c r="G84" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H84" s="1"/>
+      <c r="H84" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I84" s="12"/>
       <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
+      <c r="K84" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>253</v>
+      </c>
       <c r="M84" s="1"/>
     </row>
     <row r="85" spans="2:13" ht="75" x14ac:dyDescent="0.4">
@@ -8557,11 +9484,17 @@
       <c r="G85" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H85" s="1"/>
+      <c r="H85" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I85" s="12"/>
       <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
+      <c r="K85" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L85" s="11" t="s">
+        <v>263</v>
+      </c>
       <c r="M85" s="1"/>
     </row>
     <row r="86" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
@@ -8583,11 +9516,17 @@
       <c r="G86" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H86" s="1"/>
+      <c r="H86" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I86" s="12"/>
       <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
+      <c r="K86" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>264</v>
+      </c>
       <c r="M86" s="1"/>
     </row>
     <row r="87" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
@@ -8609,11 +9548,17 @@
       <c r="G87" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H87" s="1"/>
+      <c r="H87" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I87" s="12"/>
       <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
+      <c r="K87" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="M87" s="1"/>
     </row>
     <row r="88" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -8635,11 +9580,17 @@
       <c r="G88" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H88" s="1"/>
+      <c r="H88" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I88" s="12"/>
       <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
+      <c r="K88" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>266</v>
+      </c>
       <c r="M88" s="1"/>
     </row>
     <row r="89" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -8661,11 +9612,17 @@
       <c r="G89" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H89" s="1"/>
+      <c r="H89" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I89" s="12"/>
       <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
+      <c r="K89" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="M89" s="1"/>
     </row>
     <row r="90" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -8687,11 +9644,17 @@
       <c r="G90" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H90" s="1"/>
+      <c r="H90" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I90" s="12"/>
       <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
+      <c r="K90" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="M90" s="1"/>
     </row>
     <row r="91" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -8713,11 +9676,17 @@
       <c r="G91" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H91" s="1"/>
+      <c r="H91" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I91" s="12"/>
       <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
+      <c r="K91" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>269</v>
+      </c>
       <c r="M91" s="1"/>
     </row>
     <row r="92" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -8739,11 +9708,17 @@
       <c r="G92" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H92" s="1"/>
+      <c r="H92" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I92" s="12"/>
       <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
+      <c r="K92" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="M92" s="1"/>
     </row>
     <row r="93" spans="2:13" ht="75" x14ac:dyDescent="0.4">
@@ -8765,11 +9740,17 @@
       <c r="G93" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H93" s="1"/>
+      <c r="H93" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I93" s="12"/>
       <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
+      <c r="K93" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="M93" s="1"/>
     </row>
     <row r="94" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -8791,11 +9772,17 @@
       <c r="G94" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H94" s="1"/>
+      <c r="H94" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I94" s="12"/>
       <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
+      <c r="K94" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="M94" s="1"/>
     </row>
     <row r="95" spans="2:13" ht="75" x14ac:dyDescent="0.4">
@@ -8814,14 +9801,18 @@
       <c r="F95" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="G95" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H95" s="1"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I95" s="12"/>
       <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
+      <c r="K95" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="M95" s="1"/>
     </row>
     <row r="96" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -8843,11 +9834,17 @@
       <c r="G96" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H96" s="1"/>
+      <c r="H96" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I96" s="12"/>
       <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
+      <c r="K96" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="M96" s="1"/>
     </row>
     <row r="97" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -8869,11 +9866,17 @@
       <c r="G97" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H97" s="1"/>
+      <c r="H97" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I97" s="12"/>
       <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
+      <c r="K97" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="M97" s="1"/>
     </row>
     <row r="98" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
@@ -8895,11 +9898,17 @@
       <c r="G98" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H98" s="1"/>
+      <c r="H98" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I98" s="12"/>
       <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
+      <c r="K98" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="M98" s="1"/>
     </row>
     <row r="99" spans="2:13" ht="75" x14ac:dyDescent="0.4">
@@ -8921,11 +9930,17 @@
       <c r="G99" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H99" s="1"/>
+      <c r="H99" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I99" s="12"/>
       <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
+      <c r="K99" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="M99" s="1"/>
     </row>
     <row r="100" spans="2:13" ht="75" x14ac:dyDescent="0.4">
@@ -8947,11 +9962,17 @@
       <c r="G100" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H100" s="1"/>
+      <c r="H100" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I100" s="12"/>
       <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
+      <c r="K100" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="M100" s="1"/>
     </row>
     <row r="101" spans="2:13" ht="75" x14ac:dyDescent="0.4">
@@ -8973,11 +9994,17 @@
       <c r="G101" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H101" s="1"/>
+      <c r="H101" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I101" s="12"/>
       <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
+      <c r="K101" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="M101" s="1"/>
     </row>
     <row r="102" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
@@ -8999,11 +10026,17 @@
       <c r="G102" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H102" s="1"/>
+      <c r="H102" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I102" s="12"/>
       <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
+      <c r="K102" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L102" s="11" t="s">
+        <v>284</v>
+      </c>
       <c r="M102" s="1"/>
     </row>
     <row r="103" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
@@ -9025,11 +10058,17 @@
       <c r="G103" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H103" s="1"/>
+      <c r="H103" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I103" s="12"/>
       <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
+      <c r="K103" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="M103" s="1"/>
     </row>
     <row r="104" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -9051,11 +10090,17 @@
       <c r="G104" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H104" s="1"/>
+      <c r="H104" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I104" s="12"/>
       <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
+      <c r="K104" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="M104" s="1"/>
     </row>
     <row r="105" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -9077,11 +10122,17 @@
       <c r="G105" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H105" s="1"/>
+      <c r="H105" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I105" s="12"/>
       <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
+      <c r="K105" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="M105" s="1"/>
     </row>
     <row r="106" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
@@ -9103,11 +10154,17 @@
       <c r="G106" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H106" s="1"/>
+      <c r="H106" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I106" s="12"/>
       <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
+      <c r="K106" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="M106" s="1"/>
     </row>
     <row r="107" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -9129,11 +10186,17 @@
       <c r="G107" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H107" s="1"/>
+      <c r="H107" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I107" s="12"/>
       <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
+      <c r="K107" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="M107" s="1"/>
     </row>
     <row r="108" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -9155,11 +10218,17 @@
       <c r="G108" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H108" s="1"/>
+      <c r="H108" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I108" s="12"/>
       <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
+      <c r="K108" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="M108" s="1"/>
     </row>
     <row r="109" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -9181,11 +10250,17 @@
       <c r="G109" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H109" s="1"/>
+      <c r="H109" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I109" s="12"/>
       <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
+      <c r="K109" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="M109" s="1"/>
     </row>
     <row r="110" spans="2:13" ht="75" x14ac:dyDescent="0.4">
@@ -9207,11 +10282,17 @@
       <c r="G110" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H110" s="1"/>
+      <c r="H110" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I110" s="12"/>
       <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
+      <c r="K110" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L110" s="11" t="s">
+        <v>290</v>
+      </c>
       <c r="M110" s="1"/>
     </row>
     <row r="111" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
@@ -9228,16 +10309,22 @@
         <v>96</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="G111" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H111" s="1"/>
+      <c r="H111" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I111" s="12"/>
       <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
+      <c r="K111" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L111" s="11" t="s">
+        <v>292</v>
+      </c>
       <c r="M111" s="1"/>
     </row>
     <row r="112" spans="2:13" ht="75" x14ac:dyDescent="0.4">
@@ -9254,16 +10341,22 @@
         <v>96</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G112" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H112" s="1"/>
+      <c r="H112" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I112" s="12"/>
       <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
+      <c r="K112" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L112" s="11" t="s">
+        <v>293</v>
+      </c>
       <c r="M112" s="1"/>
     </row>
     <row r="113" spans="2:13" ht="93.75" x14ac:dyDescent="0.4">
@@ -9280,16 +10373,22 @@
         <v>96</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G113" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H113" s="1"/>
+      <c r="H113" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I113" s="12"/>
       <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
+      <c r="K113" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L113" s="11" t="s">
+        <v>294</v>
+      </c>
       <c r="M113" s="1"/>
     </row>
     <row r="114" spans="2:13" ht="150" x14ac:dyDescent="0.4">
@@ -9306,16 +10405,22 @@
         <v>96</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G114" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H114" s="1"/>
+      <c r="H114" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I114" s="12"/>
       <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
+      <c r="K114" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L114" s="11" t="s">
+        <v>295</v>
+      </c>
       <c r="M114" s="1"/>
     </row>
     <row r="115" spans="2:13" ht="75" x14ac:dyDescent="0.4">
@@ -9332,16 +10437,22 @@
         <v>96</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G115" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H115" s="1"/>
+      <c r="H115" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I115" s="12"/>
       <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
+      <c r="K115" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L115" s="11" t="s">
+        <v>293</v>
+      </c>
       <c r="M115" s="1"/>
     </row>
     <row r="116" spans="2:13" ht="131.25" x14ac:dyDescent="0.4">
@@ -9358,19 +10469,25 @@
         <v>96</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G116" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H116" s="1"/>
+      <c r="H116" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I116" s="12"/>
       <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
+      <c r="K116" s="10">
+        <v>44084</v>
+      </c>
+      <c r="L116" s="11" t="s">
+        <v>296</v>
+      </c>
       <c r="M116" s="1"/>
     </row>
-    <row r="117" spans="2:13" ht="187.5" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:13" ht="216" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B117" s="1">
         <v>115</v>
       </c>
@@ -9381,71 +10498,89 @@
         <v>52</v>
       </c>
       <c r="E117" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="F117" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="F117" s="11" t="s">
+      <c r="G117" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="G117" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="H117" s="1"/>
+      <c r="H117" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I117" s="12"/>
       <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
+      <c r="K117" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L117" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="M117" s="1"/>
     </row>
     <row r="118" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B118" s="1">
         <v>116</v>
       </c>
-      <c r="C118" s="16">
+      <c r="C118" s="18">
         <v>44083</v>
       </c>
-      <c r="D118" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="E118" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="G118" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="H118" s="1"/>
+      <c r="D118" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="E118" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="F118" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="G118" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I118" s="12"/>
       <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
+      <c r="K118" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="M118" s="1"/>
     </row>
-    <row r="119" spans="2:13" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:13" ht="150" x14ac:dyDescent="0.4">
       <c r="B119" s="1">
         <v>117</v>
       </c>
-      <c r="C119" s="16">
+      <c r="C119" s="22">
         <v>44083</v>
       </c>
-      <c r="D119" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="E119" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="G119" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="H119" s="1"/>
+      <c r="D119" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="E119" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="G119" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I119" s="12"/>
       <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
+      <c r="K119" s="10">
+        <v>44083</v>
+      </c>
+      <c r="L119" s="11" t="s">
+        <v>298</v>
+      </c>
       <c r="M119" s="1"/>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.4">
@@ -9641,9 +10776,9 @@
       <c r="M131" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:M59" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="B2:M131" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B3:M40 M41 I43:M50 I41:J42 B41:H50 B51:M131">
+  <conditionalFormatting sqref="B3:M40 M41 I43:M50 I41:J42 B41:H50 B120:M131 B118:B119 H118:M119 B51:M117">
     <cfRule type="expression" dxfId="2" priority="6">
       <formula>AND($I3 &lt;&gt; "")</formula>
     </cfRule>
@@ -9670,15 +10805,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC3CE858FB295540B5DE7630D250C364" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="d1b51e41a82ef2929feb227f42bcce47">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b0bce737-b0aa-42b7-a1df-335df910e9b2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8eac2d54d99ca51f902e3590e4374505" ns2:_="">
     <xsd:import namespace="b0bce737-b0aa-42b7-a1df-335df910e9b2"/>
@@ -9836,6 +10962,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFD1A9C8-A29C-40FA-83F1-A4A8E6C433BB}">
   <ds:schemaRefs>
@@ -9846,14 +10981,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F29D5C17-BBB1-4018-A557-AAEBE59183A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA50F61E-C53D-4A07-A314-70616507FBE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9869,4 +10996,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F29D5C17-BBB1-4018-A557-AAEBE59183A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>